--- a/card-design/cards.xlsx
+++ b/card-design/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\open-card-game\card-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA380B2-1656-4DA2-B967-8822EFF6D3D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60934F-12EA-45A1-94CB-0B48A5B91D0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="144" windowWidth="31920" windowHeight="24516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="408" windowWidth="31920" windowHeight="24516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
@@ -970,9 +970,6 @@
     <t>Your spells cost [Any] less.</t>
   </si>
   <si>
-    <t>Lian, Master Sorcerer</t>
-  </si>
-  <si>
     <t>Spirit Sprite</t>
   </si>
   <si>
@@ -1111,9 +1108,6 @@
     <t>Wish</t>
   </si>
   <si>
-    <t>Banish all creatures. Both players discard their hands. Draw 3 cards.</t>
-  </si>
-  <si>
     <t>Prophet Valeriya</t>
   </si>
   <si>
@@ -1262,6 +1256,12 @@
   </si>
   <si>
     <t>Summon a 1 / 1 [Fire] Fire Worshipper token.</t>
+  </si>
+  <si>
+    <t>Exile all creatures. Both players discard their hands. Draw 3 cards.</t>
+  </si>
+  <si>
+    <t>Lian, Gem Of The South</t>
   </si>
 </sst>
 </file>
@@ -1792,259 +1792,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -2114,8 +1862,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>112392</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Element">
@@ -2138,7 +1886,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2192,8 +1940,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Type">
@@ -2216,7 +1964,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2293,9 +2041,9 @@
   <sortState ref="A2:I192">
     <sortCondition ref="C2:C192" customList="Earth,Fire,Water,Air,Spirit"/>
     <sortCondition ref="D2:D192" customList="Hero,Creature,Spell,Item"/>
-    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="3"/>
+    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="1"/>
     <sortCondition ref="F2:F192"/>
-    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="2"/>
+    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="0"/>
     <sortCondition ref="E2:E192" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
     <sortCondition ref="B2:B192"/>
   </sortState>
@@ -2613,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2716,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2963,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2972,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2981,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2989,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -3015,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -3024,7 +2772,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -3377,7 +3125,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3386,10 +3134,10 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3397,7 +3145,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3406,10 +3154,10 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3779,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3813,7 +3561,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -3831,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4215,7 +3963,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
@@ -4230,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="I71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4238,7 +3986,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
@@ -4253,7 +4001,7 @@
         <v>77</v>
       </c>
       <c r="I72" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4284,7 +4032,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C74" t="s">
         <v>69</v>
@@ -4293,10 +4041,10 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I74" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4553,7 +4301,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
         <v>69</v>
@@ -4568,7 +4316,7 @@
         <v>265</v>
       </c>
       <c r="I87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4728,7 +4476,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
         <v>123</v>
@@ -4737,7 +4485,7 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -5044,7 +4792,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C109" t="s">
         <v>123</v>
@@ -5053,10 +4801,10 @@
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I109" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5064,7 +4812,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
         <v>123</v>
@@ -5076,10 +4824,10 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I110" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5087,7 +4835,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
@@ -5099,7 +4847,7 @@
         <v>142</v>
       </c>
       <c r="I111" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5517,7 +5265,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="C131" t="s">
         <v>249</v>
@@ -5698,7 +5446,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C139" t="s">
         <v>249</v>
@@ -5707,7 +5455,7 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -5716,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -6077,7 +5825,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C156" t="s">
         <v>249</v>
@@ -6092,7 +5840,7 @@
         <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -6100,7 +5848,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s">
         <v>249</v>
@@ -6112,10 +5860,10 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I157" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6186,7 +5934,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s">
         <v>249</v>
@@ -6198,10 +5946,10 @@
         <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I161" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -6300,19 +6048,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D167" t="s">
         <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I167" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6320,10 +6068,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -6340,10 +6088,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C169" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -6355,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6363,10 +6111,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" t="s">
         <v>312</v>
-      </c>
-      <c r="C170" t="s">
-        <v>313</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -6378,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -6386,16 +6134,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -6404,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -6412,16 +6160,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C172" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -6430,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -6438,16 +6186,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -6456,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6464,16 +6212,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -6482,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -6490,16 +6238,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C175" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -6508,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -6516,16 +6264,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
         <v>345</v>
-      </c>
-      <c r="C176" t="s">
-        <v>313</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -6533,16 +6281,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>328</v>
+      </c>
+      <c r="C177" t="s">
+        <v>312</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
         <v>329</v>
-      </c>
-      <c r="C177" t="s">
-        <v>313</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -6550,16 +6298,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
+        <v>332</v>
+      </c>
+      <c r="C178" t="s">
+        <v>312</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
         <v>333</v>
-      </c>
-      <c r="C178" t="s">
-        <v>313</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -6567,16 +6315,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
+        <v>330</v>
+      </c>
+      <c r="C179" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
         <v>331</v>
-      </c>
-      <c r="C179" t="s">
-        <v>313</v>
-      </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
-      <c r="I179" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -6584,19 +6332,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
+        <v>388</v>
+      </c>
+      <c r="C180" t="s">
+        <v>312</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>389</v>
+      </c>
+      <c r="I180" t="s">
         <v>390</v>
-      </c>
-      <c r="C180" t="s">
-        <v>313</v>
-      </c>
-      <c r="D180" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" t="s">
-        <v>391</v>
-      </c>
-      <c r="I180" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -6604,19 +6352,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" t="s">
+        <v>312</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>314</v>
+      </c>
+      <c r="I181" t="s">
         <v>339</v>
-      </c>
-      <c r="C181" t="s">
-        <v>313</v>
-      </c>
-      <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
-        <v>315</v>
-      </c>
-      <c r="I181" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -6624,19 +6372,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>314</v>
+      </c>
+      <c r="I182" t="s">
         <v>351</v>
-      </c>
-      <c r="C182" t="s">
-        <v>313</v>
-      </c>
-      <c r="D182" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" t="s">
-        <v>315</v>
-      </c>
-      <c r="I182" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -6644,19 +6392,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>334</v>
+      </c>
+      <c r="C183" t="s">
+        <v>312</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>314</v>
+      </c>
+      <c r="I183" t="s">
         <v>335</v>
-      </c>
-      <c r="C183" t="s">
-        <v>313</v>
-      </c>
-      <c r="D183" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" t="s">
-        <v>315</v>
-      </c>
-      <c r="I183" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -6664,10 +6412,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C184" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -6676,10 +6424,10 @@
         <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I184" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -6687,10 +6435,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -6699,10 +6447,10 @@
         <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I185" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -6710,10 +6458,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C186" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -6722,10 +6470,10 @@
         <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I186" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -6733,10 +6481,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -6745,7 +6493,7 @@
         <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I187" t="s">
         <v>225</v>
@@ -6756,10 +6504,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -6768,10 +6516,10 @@
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I188" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -6779,10 +6527,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -6791,10 +6539,10 @@
         <v>20</v>
       </c>
       <c r="F189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I189" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -6802,19 +6550,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
+        <v>353</v>
+      </c>
+      <c r="C190" t="s">
+        <v>312</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
         <v>354</v>
       </c>
-      <c r="C190" t="s">
-        <v>313</v>
-      </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="I190" t="s">
         <v>355</v>
-      </c>
-      <c r="I190" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -6822,19 +6570,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I191" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -6842,10 +6590,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C192" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -6854,15 +6602,15 @@
         <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I192" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/card-design/cards.xlsx
+++ b/card-design/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\open-card-game\card-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60934F-12EA-45A1-94CB-0B48A5B91D0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70555675-080D-4E51-A72B-CF5357B6D42A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="408" windowWidth="31920" windowHeight="24516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="6216" windowWidth="27312" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cards" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="412">
   <si>
     <t>ID</t>
   </si>
@@ -1262,6 +1262,15 @@
   </si>
   <si>
     <t>Lian, Gem Of The South</t>
+  </si>
+  <si>
+    <t>Human Man</t>
+  </si>
+  <si>
+    <t>1e,1r</t>
+  </si>
+  <si>
+    <t>Oioi.</t>
   </si>
 </sst>
 </file>
@@ -1852,18 +1861,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6811108</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22857</xdr:rowOff>
+      <xdr:colOff>4947139</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8639908</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112392</xdr:rowOff>
+      <xdr:colOff>6775939</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Element">
@@ -1886,7 +1895,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1896,8 +1905,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12954000" y="931395"/>
-              <a:ext cx="1828800" cy="2451735"/>
+              <a:off x="10884877" y="3885611"/>
+              <a:ext cx="1828800" cy="1682852"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1930,18 +1939,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6750733</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91438</xdr:rowOff>
+      <xdr:colOff>4957103</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8579533</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
+      <xdr:colOff>6785903</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17584</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Type">
@@ -1964,7 +1973,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1974,8 +1983,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12893625" y="3543884"/>
-              <a:ext cx="1828800" cy="2451735"/>
+              <a:off x="10894841" y="2418469"/>
+              <a:ext cx="1828800" cy="1414977"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2036,8 +2045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I192" totalsRowShown="0">
-  <autoFilter ref="A1:I192" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I193" totalsRowShown="0">
+  <autoFilter ref="A1:I193" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:I192">
     <sortCondition ref="C2:C192" customList="Earth,Fire,Water,Air,Spirit"/>
     <sortCondition ref="D2:D192" customList="Hero,Creature,Spell,Item"/>
@@ -2359,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,6 +2381,9 @@
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="140.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6606,6 +6618,32 @@
       </c>
       <c r="I192" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>410</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/card-design/cards.xlsx
+++ b/card-design/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\git\open-card-game\card-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70555675-080D-4E51-A72B-CF5357B6D42A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48877847-76C6-44F6-AAA1-ADCC66CCB1AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="6216" windowWidth="27312" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Permanent</t>
   </si>
   <si>
-    <t>3e</t>
-  </si>
-  <si>
     <t>Flower Crown</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>Runed Champion</t>
   </si>
   <si>
-    <t>When this is destroyed by combat damage, burn a card.</t>
-  </si>
-  <si>
     <t>Fire Acolyte</t>
   </si>
   <si>
@@ -427,15 +421,9 @@
     <t>Enchant a creature. Set its attack to 0. At the start of your turn destroy this, unless a [Water] field spell is active.</t>
   </si>
   <si>
-    <t>Selfless Mermaid</t>
-  </si>
-  <si>
     <t>2w</t>
   </si>
   <si>
-    <t>When this is destroyed, restore all friendly creatures to full health.</t>
-  </si>
-  <si>
     <t>Water Witch</t>
   </si>
   <si>
@@ -448,9 +436,6 @@
     <t>Arcane Defender</t>
   </si>
   <si>
-    <t>Your other creatures cannot be targeted with attacks. At the start of your turn, shuffle this into your deck.</t>
-  </si>
-  <si>
     <t>Vengeful Mermaid</t>
   </si>
   <si>
@@ -580,9 +565,6 @@
     <t>Phial of Blight</t>
   </si>
   <si>
-    <t>Equip to a friendly creature. When it enters combat with an enemy creature, destroy it and this.</t>
-  </si>
-  <si>
     <t>Enchant a creature. It gains +3 / +3.</t>
   </si>
   <si>
@@ -625,12 +607,6 @@
     <t>Kindle</t>
   </si>
   <si>
-    <t>Cast at any time. Deal 1 damage to a creature.</t>
-  </si>
-  <si>
-    <t>Draw until you have 7 cards in hand, then burn the rest of your deck. You don't draw at the start of your turns.</t>
-  </si>
-  <si>
     <t>[Fire] creatures you control gain +3 / +0 until end of turn.</t>
   </si>
   <si>
@@ -700,9 +676,6 @@
     <t>Death Ward</t>
   </si>
   <si>
-    <t>When you would die, destroy this, and if you do, you cannot die until the end of this turn.</t>
-  </si>
-  <si>
     <t>Ocean's Grasp</t>
   </si>
   <si>
@@ -841,9 +814,6 @@
     <t>Flying Cat</t>
   </si>
   <si>
-    <t>If you have 3 or more [Air] in your mana pool, this costs 0.</t>
-  </si>
-  <si>
     <t>Air Elemental</t>
   </si>
   <si>
@@ -853,12 +823,6 @@
     <t>Pegasus</t>
   </si>
   <si>
-    <t>If you have 3 or more [Air] in your mana pool, this costs 2 [Air].</t>
-  </si>
-  <si>
-    <t>If you have 3 or more [Air] in your mana pool, this costs 1 [Air].</t>
-  </si>
-  <si>
     <t>Dispel Magic</t>
   </si>
   <si>
@@ -901,21 +865,12 @@
     <t>Sealing Sigil</t>
   </si>
   <si>
-    <t>Cards added to either player's mana pool are exiled instead. At the start of your turn destroy this.</t>
-  </si>
-  <si>
-    <t>Counter the first spell your opponent plays each turn.</t>
-  </si>
-  <si>
     <t>Overcast</t>
   </si>
   <si>
     <t>Anti-Magic Field</t>
   </si>
   <si>
-    <t>Field spells cost [Real] more.</t>
-  </si>
-  <si>
     <t>Hurricane</t>
   </si>
   <si>
@@ -991,9 +946,6 @@
     <t>2s</t>
   </si>
   <si>
-    <t>When you play a card that costs [Spirit] or more, you may summon this from your hand.</t>
-  </si>
-  <si>
     <t>Friendly Ghost</t>
   </si>
   <si>
@@ -1018,9 +970,6 @@
     <t>Ancient Herald</t>
   </si>
   <si>
-    <t>You may pay [Spirit] to search your deck for a Hero.</t>
-  </si>
-  <si>
     <t>Scry</t>
   </si>
   <si>
@@ -1030,9 +979,6 @@
     <t>Vision</t>
   </si>
   <si>
-    <t>View the top card of your opponent's deck.</t>
-  </si>
-  <si>
     <t>Sense Emotion</t>
   </si>
   <si>
@@ -1117,9 +1063,6 @@
     <t>Spirit Blade</t>
   </si>
   <si>
-    <t>Channel X [Any]. Equip to a friendly creature. It gains +X / +0.</t>
-  </si>
-  <si>
     <t>Ash Elemental</t>
   </si>
   <si>
@@ -1204,12 +1147,6 @@
     <t>Sprite Portal</t>
   </si>
   <si>
-    <t>1f,1e,1w,1a</t>
-  </si>
-  <si>
-    <t>Shuffle all "sprite" cards from your exile pile into your deck.</t>
-  </si>
-  <si>
     <t>Irrigate</t>
   </si>
   <si>
@@ -1264,13 +1201,94 @@
     <t>Lian, Gem Of The South</t>
   </si>
   <si>
-    <t>Human Man</t>
-  </si>
-  <si>
     <t>1e,1r</t>
   </si>
   <si>
-    <t>Oioi.</t>
+    <t>When you play a card that costs at least 1 [Spirit], you may summon this from your hand.</t>
+  </si>
+  <si>
+    <t>When you play this you may pay [Spirit] to search your deck for a Hero.</t>
+  </si>
+  <si>
+    <t>1s,2r</t>
+  </si>
+  <si>
+    <t>At the end of your turn, add all "sprite" cards from your mana pool and exile piles to your hand.</t>
+  </si>
+  <si>
+    <t>View the top 3 cards of your opponent's deck and put them back in the same order.</t>
+  </si>
+  <si>
+    <t>1r</t>
+  </si>
+  <si>
+    <t>1s,1r</t>
+  </si>
+  <si>
+    <t>Channel X [Spirit]. Equip to a friendly creature. It gains +X / +0.</t>
+  </si>
+  <si>
+    <t>If you have 3 or more [Air] in your mana pool, this costs 2 [Air] less.</t>
+  </si>
+  <si>
+    <t>Field spells cost [Any] more.</t>
+  </si>
+  <si>
+    <t>Cards added to either player's mana pool are exiled instead.</t>
+  </si>
+  <si>
+    <t>Spells cost 2 [Any] more.</t>
+  </si>
+  <si>
+    <t>Kind Mermaid</t>
+  </si>
+  <si>
+    <t>When this is destroyed, summon a 0 cost creature of your choice from your exile pile.</t>
+  </si>
+  <si>
+    <t>1w,1r</t>
+  </si>
+  <si>
+    <t>2w,1r</t>
+  </si>
+  <si>
+    <t>Destroy a creature with 2 or less attack.</t>
+  </si>
+  <si>
+    <t>When you would die, destroy this, and if you do, you cannot die until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>2r</t>
+  </si>
+  <si>
+    <t>2f,1r</t>
+  </si>
+  <si>
+    <t>Burn 1 card and draw 1 card.</t>
+  </si>
+  <si>
+    <t>Draw until you have 7 cards in hand, then burn the rest of your deck. You cannot draw or burn cards.</t>
+  </si>
+  <si>
+    <t>Cast at any time. Deal 1 damage to a creature and draw a card.</t>
+  </si>
+  <si>
+    <t>1f,1r</t>
+  </si>
+  <si>
+    <t>When this is destroyed by combat damage, search your deck for a [Fire] card.</t>
+  </si>
+  <si>
+    <t>2e,1r</t>
+  </si>
+  <si>
+    <t>1e,2r</t>
+  </si>
+  <si>
+    <t>Enchant a creature. It gains +1 / +1. Draw a card.</t>
+  </si>
+  <si>
+    <t>Equip to a friendly creature. After combat with an enemy creature, destroy this and the enemy creature.</t>
   </si>
 </sst>
 </file>
@@ -1804,6 +1822,11 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1838,11 +1861,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1861,15 +1879,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4947139</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69749</xdr:rowOff>
+      <xdr:colOff>4870940</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>28718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6775939</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>117232</xdr:rowOff>
+      <xdr:colOff>6699740</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -1905,7 +1923,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10884877" y="3885611"/>
+              <a:off x="10808678" y="2390918"/>
               <a:ext cx="1828800" cy="1682852"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1939,15 +1957,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4957103</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56269</xdr:rowOff>
+      <xdr:colOff>5115364</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>32822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6785903</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17584</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109610</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -1983,7 +2001,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10894841" y="2418469"/>
+              <a:off x="11053102" y="214530"/>
               <a:ext cx="1828800" cy="1414977"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2045,14 +2063,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I193" totalsRowShown="0">
-  <autoFilter ref="A1:I193" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I192" totalsRowShown="0">
+  <autoFilter ref="A1:I192" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Water"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:I192">
     <sortCondition ref="C2:C192" customList="Earth,Fire,Water,Air,Spirit"/>
     <sortCondition ref="D2:D192" customList="Hero,Creature,Spell,Item"/>
-    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="F2:F192" dxfId="2"/>
     <sortCondition ref="F2:F192"/>
-    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="0"/>
+    <sortCondition sortBy="fontColor" ref="E2:E192" dxfId="1"/>
     <sortCondition ref="E2:E192" customList="Reaction,Enchantment,Equipment,Permanent,Field"/>
     <sortCondition ref="B2:B192"/>
   </sortState>
@@ -2368,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2384,7 +2408,7 @@
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.44140625" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="140.44140625" customWidth="1"/>
+    <col min="9" max="9" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2416,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2436,12 +2460,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2453,15 +2477,15 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2476,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2499,7 +2523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2519,15 +2543,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2542,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2565,15 +2589,15 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2588,15 +2612,15 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2605,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2614,15 +2638,15 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2631,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2640,12 +2664,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2654,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2663,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2680,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2692,7 +2716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2715,15 +2739,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2732,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2741,15 +2765,15 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2758,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2767,15 +2791,15 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2784,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2793,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2819,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2833,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2845,12 +2869,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -2868,15 +2892,15 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2885,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2894,12 +2918,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2908,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2917,10 +2941,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2934,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>415</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2943,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2963,12 +2987,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -2980,10 +3004,10 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3003,12 +3027,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -3020,10 +3044,10 @@
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3036,14 +3060,11 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3063,12 +3084,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -3083,15 +3104,15 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -3106,15 +3127,15 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -3125,19 +3146,16 @@
       <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3146,18 +3164,18 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3166,18 +3184,18 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="I34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -3189,15 +3207,15 @@
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -3212,15 +3230,15 @@
         <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -3232,18 +3250,18 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -3255,10 +3273,10 @@
         <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3278,12 +3296,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -3295,15 +3313,15 @@
         <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -3315,10 +3333,10 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3358,58 +3376,58 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
         <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>69</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3421,18 +3439,18 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -3444,15 +3462,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -3464,18 +3482,18 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -3487,24 +3505,24 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3513,24 +3531,24 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3539,25 +3557,22 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" t="s">
-        <v>77</v>
-      </c>
       <c r="G52">
         <v>2</v>
       </c>
@@ -3565,50 +3580,50 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3617,21 +3632,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -3640,21 +3655,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3663,24 +3678,24 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -3689,24 +3704,24 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3715,24 +3730,24 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -3741,24 +3756,24 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -3767,52 +3782,52 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -3821,18 +3836,18 @@
         <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -3841,18 +3856,18 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -3861,18 +3876,18 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -3881,18 +3896,18 @@
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3901,38 +3916,38 @@
         <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
@@ -3941,21 +3956,21 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -3964,21 +3979,21 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -3987,21 +4002,21 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -4010,21 +4025,21 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -4032,122 +4047,119 @@
       <c r="E73" t="s">
         <v>31</v>
       </c>
-      <c r="F73" t="s">
-        <v>77</v>
-      </c>
       <c r="I73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="I74" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -4156,81 +4168,81 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
         <v>72</v>
       </c>
-      <c r="C82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>73</v>
-      </c>
       <c r="I82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -4239,21 +4251,21 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I83" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
@@ -4262,38 +4274,38 @@
         <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
@@ -4301,22 +4313,19 @@
       <c r="E86" t="s">
         <v>41</v>
       </c>
-      <c r="F86" t="s">
-        <v>77</v>
-      </c>
       <c r="I86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -4325,21 +4334,21 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I87" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -4348,21 +4357,21 @@
         <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -4371,10 +4380,10 @@
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4382,19 +4391,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4402,19 +4411,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4422,10 +4431,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -4437,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4445,10 +4454,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -4465,10 +4474,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -4480,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4488,16 +4497,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -4511,25 +4520,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
       <c r="I96" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4537,16 +4546,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -4555,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4563,16 +4572,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -4586,16 +4595,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -4604,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4612,16 +4621,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -4630,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -4638,16 +4647,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -4656,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -4664,16 +4673,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -4682,7 +4691,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -4690,16 +4699,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -4707,16 +4716,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4724,10 +4733,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -4736,7 +4745,7 @@
         <v>16</v>
       </c>
       <c r="I105" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4744,10 +4753,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4756,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="I106" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -4764,10 +4773,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -4776,7 +4785,7 @@
         <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -4784,10 +4793,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -4796,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -4804,19 +4813,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="I109" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4824,10 +4833,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
@@ -4836,10 +4845,10 @@
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="I110" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4847,19 +4856,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I111" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4867,10 +4876,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -4879,10 +4888,10 @@
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -4890,10 +4899,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -4902,10 +4911,10 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I113" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -4913,10 +4922,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -4925,10 +4934,10 @@
         <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I114" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4936,10 +4945,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -4948,10 +4957,10 @@
         <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -4959,10 +4968,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -4970,11 +4979,8 @@
       <c r="E116" t="s">
         <v>31</v>
       </c>
-      <c r="F116" t="s">
-        <v>142</v>
-      </c>
       <c r="I116" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -4982,10 +4988,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
@@ -4993,11 +4999,8 @@
       <c r="E117" t="s">
         <v>31</v>
       </c>
-      <c r="F117" t="s">
-        <v>142</v>
-      </c>
       <c r="I117" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -5005,19 +5008,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I118" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5025,19 +5028,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I119" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5045,19 +5048,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I120" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5065,19 +5068,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I121" t="s">
-        <v>225</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5085,19 +5088,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I122" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5105,10 +5108,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -5117,10 +5120,10 @@
         <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I123" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5128,10 +5131,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -5140,10 +5143,10 @@
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I124" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5151,19 +5154,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5171,19 +5174,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I126" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5191,10 +5194,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D127" t="s">
         <v>27</v>
@@ -5203,10 +5206,10 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="I127" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5214,10 +5217,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
@@ -5226,10 +5229,10 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="I128" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5237,19 +5240,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I129" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -5257,70 +5260,70 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I130" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D131" t="s">
         <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D132" t="s">
         <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I132" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
@@ -5332,15 +5335,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
@@ -5352,18 +5355,18 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
@@ -5375,24 +5378,24 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -5401,24 +5404,24 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -5427,24 +5430,24 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -5453,21 +5456,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -5476,24 +5479,24 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -5502,24 +5505,24 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -5528,24 +5531,24 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -5554,24 +5557,24 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -5580,35 +5583,35 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C144" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
@@ -5617,18 +5620,18 @@
         <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -5637,18 +5640,18 @@
         <v>16</v>
       </c>
       <c r="I146" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -5657,18 +5660,18 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C148" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
@@ -5677,18 +5680,18 @@
         <v>47</v>
       </c>
       <c r="I148" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -5697,58 +5700,55 @@
         <v>31</v>
       </c>
       <c r="I149" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I150" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C151" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
-      <c r="F151" t="s">
-        <v>259</v>
-      </c>
       <c r="I151" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
@@ -5757,21 +5757,21 @@
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I152" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
@@ -5779,22 +5779,19 @@
       <c r="E153" t="s">
         <v>20</v>
       </c>
-      <c r="F153" t="s">
-        <v>259</v>
-      </c>
       <c r="I153" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -5802,22 +5799,19 @@
       <c r="E154" t="s">
         <v>47</v>
       </c>
-      <c r="F154" t="s">
-        <v>259</v>
-      </c>
       <c r="I154" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -5826,21 +5820,21 @@
         <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I155" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5852,18 +5846,18 @@
         <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -5872,61 +5866,61 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="I157" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="F158" t="s">
+        <v>256</v>
+      </c>
+      <c r="I158" t="s">
         <v>265</v>
       </c>
-      <c r="I158" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I159" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
@@ -5935,21 +5929,21 @@
         <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I160" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -5958,21 +5952,21 @@
         <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="I161" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -5981,109 +5975,109 @@
         <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I162" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
         <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
       </c>
       <c r="I164" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
       </c>
       <c r="I165" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C166" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
       <c r="I166" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C167" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D167" t="s">
         <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I167" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C168" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -6095,15 +6089,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C169" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -6115,18 +6109,18 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C170" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -6138,24 +6132,24 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -6164,25 +6158,22 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
-      <c r="F172" t="s">
-        <v>314</v>
-      </c>
       <c r="G172">
         <v>1</v>
       </c>
@@ -6190,24 +6181,24 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C173" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -6216,24 +6207,24 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C174" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -6242,24 +6233,24 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C175" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -6268,166 +6259,169 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C176" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C177" t="s">
+        <v>297</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
         <v>312</v>
       </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C178" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C179" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
+      <c r="E180" t="s">
+        <v>47</v>
+      </c>
       <c r="F180" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I180" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C181" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="F181" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I181" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C182" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="F182" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="I182" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C183" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="F183" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I183" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
@@ -6436,21 +6430,21 @@
         <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I184" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C185" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -6459,21 +6453,21 @@
         <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I185" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C186" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -6481,22 +6475,19 @@
       <c r="E186" t="s">
         <v>47</v>
       </c>
-      <c r="F186" t="s">
-        <v>314</v>
-      </c>
       <c r="I186" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C187" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -6505,21 +6496,21 @@
         <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="I187" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -6528,21 +6519,21 @@
         <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="I188" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C189" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -6551,61 +6542,61 @@
         <v>20</v>
       </c>
       <c r="F189" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="I189" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C190" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="I190" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="I191" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C192" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -6613,42 +6604,13 @@
       <c r="E192" t="s">
         <v>41</v>
       </c>
-      <c r="F192" t="s">
-        <v>314</v>
-      </c>
       <c r="I192" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>409</v>
-      </c>
-      <c r="C193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" t="s">
-        <v>410</v>
-      </c>
-      <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193">
-        <v>2</v>
-      </c>
-      <c r="I193" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
